--- a/V1/Dataset/GECCO20Workshop.xlsx
+++ b/V1/Dataset/GECCO20Workshop.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pylya\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pylya\Desktop\PhD\PhD\github\CSPLib\V1\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E85693-DB95-476B-A54F-93A13C89B362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE87D91-FDB5-427F-95C0-BD68A0A83FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="900" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="900" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="22" r:id="rId1"/>
@@ -1737,7 +1737,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="446">
   <si>
     <t>Sessions</t>
   </si>
@@ -3407,6 +3407,96 @@
   </si>
   <si>
     <t>Room 10</t>
+  </si>
+  <si>
+    <t>person2</t>
+  </si>
+  <si>
+    <t>person6</t>
+  </si>
+  <si>
+    <t>person7</t>
+  </si>
+  <si>
+    <t>person10</t>
+  </si>
+  <si>
+    <t>person11</t>
+  </si>
+  <si>
+    <t>person12</t>
+  </si>
+  <si>
+    <t>person27</t>
+  </si>
+  <si>
+    <t>person29</t>
+  </si>
+  <si>
+    <t>person48</t>
+  </si>
+  <si>
+    <t>person61</t>
+  </si>
+  <si>
+    <t>person67</t>
+  </si>
+  <si>
+    <t>person72</t>
+  </si>
+  <si>
+    <t>person74</t>
+  </si>
+  <si>
+    <t>person76</t>
+  </si>
+  <si>
+    <t>person77</t>
+  </si>
+  <si>
+    <t>person83</t>
+  </si>
+  <si>
+    <t>person85</t>
+  </si>
+  <si>
+    <t>person86</t>
+  </si>
+  <si>
+    <t>person88</t>
+  </si>
+  <si>
+    <t>person90</t>
+  </si>
+  <si>
+    <t>person93</t>
+  </si>
+  <si>
+    <t>person94</t>
+  </si>
+  <si>
+    <t>person97</t>
+  </si>
+  <si>
+    <t>person100</t>
+  </si>
+  <si>
+    <t>person102</t>
+  </si>
+  <si>
+    <t>person112</t>
+  </si>
+  <si>
+    <t>person114</t>
+  </si>
+  <si>
+    <t>person125</t>
+  </si>
+  <si>
+    <t>person127</t>
+  </si>
+  <si>
+    <t>person128</t>
   </si>
 </sst>
 </file>
@@ -3715,17 +3805,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3736,6 +3817,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3744,12 +3831,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3763,10 +3844,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3783,9 +3876,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3808,17 +3898,17 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4113,143 +4203,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="49"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
     </row>
     <row r="4" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="51"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="50"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="51"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="49"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="50"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="51"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="49"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="50"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="51"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="49"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="50"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="51"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="49"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="50"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="51"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="49"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="50"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="51"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="50"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="51"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="49"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="50"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="51"/>
     </row>
     <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="49"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="50"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="51"/>
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="41"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="37"/>
+      <c r="A15" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="36"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="37"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="36"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="44"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="32" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="52"/>
@@ -4336,221 +4426,221 @@
       <c r="E29" s="55"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="51" t="s">
+      <c r="A30" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="59"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="33"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="51" t="s">
+      <c r="A31" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="59"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="33"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="51"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="59"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="33"/>
     </row>
     <row r="33" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="60" t="s">
+      <c r="A33" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="60"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="61"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="42"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="60"/>
-      <c r="B34" s="60"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="61"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="42"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="60"/>
-      <c r="B35" s="60"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="61"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="42"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="60"/>
-      <c r="B36" s="60"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="61"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="42"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="60"/>
-      <c r="B37" s="60"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="61"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="42"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="60"/>
-      <c r="B38" s="60"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="61"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="42"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="60"/>
-      <c r="B39" s="60"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="61"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="42"/>
     </row>
     <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="40"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="41"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="38"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="35" t="s">
+      <c r="A41" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="37"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="36"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="36"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="37"/>
+      <c r="A42" s="35"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="36"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="42" t="s">
+      <c r="A43" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="42"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="43"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="40"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="32" t="s">
+      <c r="A44" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="34"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="31"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="33"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="34"/>
+      <c r="A45" s="30"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="31"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="32" t="s">
+      <c r="A46" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="34"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="31"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="33"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="34"/>
+      <c r="A47" s="30"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="31"/>
     </row>
     <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="40"/>
-      <c r="B48" s="40"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="41"/>
+      <c r="A48" s="37"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="38"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="35" t="s">
+      <c r="A49" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="36"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="37"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="36"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="36"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="37"/>
+      <c r="A50" s="35"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="36"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="42" t="s">
+      <c r="A51" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="43"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="40"/>
     </row>
     <row r="52" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="30" t="s">
+      <c r="A52" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="B52" s="30"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="31"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="60"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="32" t="s">
+      <c r="A53" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B53" s="32"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="46"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="47"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="32"/>
-      <c r="B54" s="32"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="46"/>
+      <c r="A54" s="29"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="47"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="30" t="s">
+      <c r="A55" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="B55" s="30"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="31"/>
+      <c r="B55" s="59"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="60"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="30" t="s">
+      <c r="A56" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B56" s="30"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="31"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="60"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="27" t="s">
@@ -4559,427 +4649,439 @@
       <c r="E57" s="18"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="32" t="s">
+      <c r="A58" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B58" s="33"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="34"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="31"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="33"/>
-      <c r="B59" s="33"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="34"/>
+      <c r="A59" s="30"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="31"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="38" t="s">
+      <c r="A60" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B60" s="38"/>
-      <c r="C60" s="38"/>
-      <c r="D60" s="38"/>
-      <c r="E60" s="39"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="44"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="38"/>
-      <c r="B61" s="38"/>
-      <c r="C61" s="38"/>
-      <c r="D61" s="38"/>
-      <c r="E61" s="39"/>
+      <c r="A61" s="43"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="44"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="38"/>
-      <c r="B62" s="38"/>
-      <c r="C62" s="38"/>
-      <c r="D62" s="38"/>
-      <c r="E62" s="39"/>
+      <c r="A62" s="43"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="44"/>
     </row>
     <row r="63" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="40"/>
-      <c r="B63" s="40"/>
-      <c r="C63" s="40"/>
-      <c r="D63" s="40"/>
-      <c r="E63" s="41"/>
+      <c r="A63" s="37"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="38"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="35" t="s">
+      <c r="A64" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B64" s="36"/>
-      <c r="C64" s="36"/>
-      <c r="D64" s="36"/>
-      <c r="E64" s="37"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="36"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="36"/>
-      <c r="B65" s="36"/>
-      <c r="C65" s="36"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="37"/>
+      <c r="A65" s="35"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="36"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="42" t="s">
+      <c r="A66" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="B66" s="42"/>
-      <c r="C66" s="42"/>
-      <c r="D66" s="42"/>
-      <c r="E66" s="43"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="40"/>
     </row>
     <row r="67" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="30" t="s">
+      <c r="A67" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B67" s="30"/>
-      <c r="C67" s="30"/>
-      <c r="D67" s="30"/>
-      <c r="E67" s="31"/>
+      <c r="B67" s="59"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="59"/>
+      <c r="E67" s="60"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="28"/>
-      <c r="B68" s="28"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="29"/>
+      <c r="A68" s="45"/>
+      <c r="B68" s="45"/>
+      <c r="C68" s="45"/>
+      <c r="D68" s="45"/>
+      <c r="E68" s="46"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="35" t="s">
+      <c r="A69" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B69" s="36"/>
-      <c r="C69" s="36"/>
-      <c r="D69" s="36"/>
-      <c r="E69" s="37"/>
+      <c r="B69" s="35"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="36"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="36"/>
-      <c r="B70" s="36"/>
-      <c r="C70" s="36"/>
-      <c r="D70" s="36"/>
-      <c r="E70" s="37"/>
+      <c r="A70" s="35"/>
+      <c r="B70" s="35"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="36"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="38" t="s">
+      <c r="A71" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="B71" s="38"/>
-      <c r="C71" s="38"/>
-      <c r="D71" s="38"/>
-      <c r="E71" s="39"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="44"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="38"/>
-      <c r="B72" s="38"/>
-      <c r="C72" s="38"/>
-      <c r="D72" s="38"/>
-      <c r="E72" s="39"/>
+      <c r="A72" s="43"/>
+      <c r="B72" s="43"/>
+      <c r="C72" s="43"/>
+      <c r="D72" s="43"/>
+      <c r="E72" s="44"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="38"/>
-      <c r="B73" s="38"/>
-      <c r="C73" s="38"/>
-      <c r="D73" s="38"/>
-      <c r="E73" s="39"/>
+      <c r="A73" s="43"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="44"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="38"/>
-      <c r="B74" s="38"/>
-      <c r="C74" s="38"/>
-      <c r="D74" s="38"/>
-      <c r="E74" s="39"/>
+      <c r="A74" s="43"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="44"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="38"/>
-      <c r="B75" s="38"/>
-      <c r="C75" s="38"/>
-      <c r="D75" s="38"/>
-      <c r="E75" s="39"/>
+      <c r="A75" s="43"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="44"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="38"/>
-      <c r="B76" s="38"/>
-      <c r="C76" s="38"/>
-      <c r="D76" s="38"/>
-      <c r="E76" s="39"/>
+      <c r="A76" s="43"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="43"/>
+      <c r="E76" s="44"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="38"/>
-      <c r="B77" s="38"/>
-      <c r="C77" s="38"/>
-      <c r="D77" s="38"/>
-      <c r="E77" s="39"/>
+      <c r="A77" s="43"/>
+      <c r="B77" s="43"/>
+      <c r="C77" s="43"/>
+      <c r="D77" s="43"/>
+      <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="38"/>
-      <c r="B78" s="38"/>
-      <c r="C78" s="38"/>
-      <c r="D78" s="38"/>
-      <c r="E78" s="39"/>
+      <c r="A78" s="43"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="43"/>
+      <c r="D78" s="43"/>
+      <c r="E78" s="44"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="44"/>
-      <c r="B79" s="44"/>
-      <c r="C79" s="44"/>
-      <c r="D79" s="44"/>
-      <c r="E79" s="45"/>
+      <c r="A79" s="61"/>
+      <c r="B79" s="61"/>
+      <c r="C79" s="61"/>
+      <c r="D79" s="61"/>
+      <c r="E79" s="62"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="35" t="s">
+      <c r="A80" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B80" s="36"/>
-      <c r="C80" s="36"/>
-      <c r="D80" s="36"/>
-      <c r="E80" s="37"/>
+      <c r="B80" s="35"/>
+      <c r="C80" s="35"/>
+      <c r="D80" s="35"/>
+      <c r="E80" s="36"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="36"/>
-      <c r="B81" s="36"/>
-      <c r="C81" s="36"/>
-      <c r="D81" s="36"/>
-      <c r="E81" s="37"/>
+      <c r="A81" s="35"/>
+      <c r="B81" s="35"/>
+      <c r="C81" s="35"/>
+      <c r="D81" s="35"/>
+      <c r="E81" s="36"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="38" t="s">
+      <c r="A82" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B82" s="38"/>
-      <c r="C82" s="38"/>
-      <c r="D82" s="38"/>
-      <c r="E82" s="39"/>
+      <c r="B82" s="43"/>
+      <c r="C82" s="43"/>
+      <c r="D82" s="43"/>
+      <c r="E82" s="44"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="38"/>
-      <c r="B83" s="38"/>
-      <c r="C83" s="38"/>
-      <c r="D83" s="38"/>
-      <c r="E83" s="39"/>
+      <c r="A83" s="43"/>
+      <c r="B83" s="43"/>
+      <c r="C83" s="43"/>
+      <c r="D83" s="43"/>
+      <c r="E83" s="44"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="38"/>
-      <c r="B84" s="38"/>
-      <c r="C84" s="38"/>
-      <c r="D84" s="38"/>
-      <c r="E84" s="39"/>
+      <c r="A84" s="43"/>
+      <c r="B84" s="43"/>
+      <c r="C84" s="43"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="44"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="38"/>
-      <c r="B85" s="38"/>
-      <c r="C85" s="38"/>
-      <c r="D85" s="38"/>
-      <c r="E85" s="39"/>
+      <c r="A85" s="43"/>
+      <c r="B85" s="43"/>
+      <c r="C85" s="43"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="44"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="38"/>
-      <c r="B86" s="38"/>
-      <c r="C86" s="38"/>
-      <c r="D86" s="38"/>
-      <c r="E86" s="39"/>
+      <c r="A86" s="43"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="43"/>
+      <c r="D86" s="43"/>
+      <c r="E86" s="44"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="38"/>
-      <c r="B87" s="38"/>
-      <c r="C87" s="38"/>
-      <c r="D87" s="38"/>
-      <c r="E87" s="39"/>
+      <c r="A87" s="43"/>
+      <c r="B87" s="43"/>
+      <c r="C87" s="43"/>
+      <c r="D87" s="43"/>
+      <c r="E87" s="44"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="38"/>
-      <c r="B88" s="38"/>
-      <c r="C88" s="38"/>
-      <c r="D88" s="38"/>
-      <c r="E88" s="39"/>
+      <c r="A88" s="43"/>
+      <c r="B88" s="43"/>
+      <c r="C88" s="43"/>
+      <c r="D88" s="43"/>
+      <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="38"/>
-      <c r="B89" s="38"/>
-      <c r="C89" s="38"/>
-      <c r="D89" s="38"/>
-      <c r="E89" s="39"/>
+      <c r="A89" s="43"/>
+      <c r="B89" s="43"/>
+      <c r="C89" s="43"/>
+      <c r="D89" s="43"/>
+      <c r="E89" s="44"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="28"/>
-      <c r="B90" s="28"/>
-      <c r="C90" s="28"/>
-      <c r="D90" s="28"/>
-      <c r="E90" s="29"/>
+      <c r="A90" s="45"/>
+      <c r="B90" s="45"/>
+      <c r="C90" s="45"/>
+      <c r="D90" s="45"/>
+      <c r="E90" s="46"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="35" t="s">
+      <c r="A91" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B91" s="36"/>
-      <c r="C91" s="36"/>
-      <c r="D91" s="36"/>
-      <c r="E91" s="37"/>
+      <c r="B91" s="35"/>
+      <c r="C91" s="35"/>
+      <c r="D91" s="35"/>
+      <c r="E91" s="36"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="36"/>
-      <c r="B92" s="36"/>
-      <c r="C92" s="36"/>
-      <c r="D92" s="36"/>
-      <c r="E92" s="37"/>
+      <c r="A92" s="35"/>
+      <c r="B92" s="35"/>
+      <c r="C92" s="35"/>
+      <c r="D92" s="35"/>
+      <c r="E92" s="36"/>
     </row>
     <row r="93" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="38" t="s">
+      <c r="A93" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="B93" s="38"/>
-      <c r="C93" s="38"/>
-      <c r="D93" s="38"/>
-      <c r="E93" s="39"/>
+      <c r="B93" s="43"/>
+      <c r="C93" s="43"/>
+      <c r="D93" s="43"/>
+      <c r="E93" s="44"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="38"/>
-      <c r="B94" s="38"/>
-      <c r="C94" s="38"/>
-      <c r="D94" s="38"/>
-      <c r="E94" s="39"/>
+      <c r="A94" s="43"/>
+      <c r="B94" s="43"/>
+      <c r="C94" s="43"/>
+      <c r="D94" s="43"/>
+      <c r="E94" s="44"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="38"/>
-      <c r="B95" s="38"/>
-      <c r="C95" s="38"/>
-      <c r="D95" s="38"/>
-      <c r="E95" s="39"/>
+      <c r="A95" s="43"/>
+      <c r="B95" s="43"/>
+      <c r="C95" s="43"/>
+      <c r="D95" s="43"/>
+      <c r="E95" s="44"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="38"/>
-      <c r="B96" s="38"/>
-      <c r="C96" s="38"/>
-      <c r="D96" s="38"/>
-      <c r="E96" s="39"/>
+      <c r="A96" s="43"/>
+      <c r="B96" s="43"/>
+      <c r="C96" s="43"/>
+      <c r="D96" s="43"/>
+      <c r="E96" s="44"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="38"/>
-      <c r="B97" s="38"/>
-      <c r="C97" s="38"/>
-      <c r="D97" s="38"/>
-      <c r="E97" s="39"/>
+      <c r="A97" s="43"/>
+      <c r="B97" s="43"/>
+      <c r="C97" s="43"/>
+      <c r="D97" s="43"/>
+      <c r="E97" s="44"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="38"/>
-      <c r="B98" s="38"/>
-      <c r="C98" s="38"/>
-      <c r="D98" s="38"/>
-      <c r="E98" s="39"/>
+      <c r="A98" s="43"/>
+      <c r="B98" s="43"/>
+      <c r="C98" s="43"/>
+      <c r="D98" s="43"/>
+      <c r="E98" s="44"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="38"/>
-      <c r="B99" s="38"/>
-      <c r="C99" s="38"/>
-      <c r="D99" s="38"/>
-      <c r="E99" s="39"/>
+      <c r="A99" s="43"/>
+      <c r="B99" s="43"/>
+      <c r="C99" s="43"/>
+      <c r="D99" s="43"/>
+      <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="38"/>
-      <c r="B100" s="38"/>
-      <c r="C100" s="38"/>
-      <c r="D100" s="38"/>
-      <c r="E100" s="39"/>
+      <c r="A100" s="43"/>
+      <c r="B100" s="43"/>
+      <c r="C100" s="43"/>
+      <c r="D100" s="43"/>
+      <c r="E100" s="44"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="28"/>
-      <c r="B101" s="28"/>
-      <c r="C101" s="28"/>
-      <c r="D101" s="28"/>
-      <c r="E101" s="29"/>
+      <c r="A101" s="45"/>
+      <c r="B101" s="45"/>
+      <c r="C101" s="45"/>
+      <c r="D101" s="45"/>
+      <c r="E101" s="46"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="35" t="s">
+      <c r="A102" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B102" s="36"/>
-      <c r="C102" s="36"/>
-      <c r="D102" s="36"/>
-      <c r="E102" s="37"/>
+      <c r="B102" s="35"/>
+      <c r="C102" s="35"/>
+      <c r="D102" s="35"/>
+      <c r="E102" s="36"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="36"/>
-      <c r="B103" s="36"/>
-      <c r="C103" s="36"/>
-      <c r="D103" s="36"/>
-      <c r="E103" s="37"/>
+      <c r="A103" s="35"/>
+      <c r="B103" s="35"/>
+      <c r="C103" s="35"/>
+      <c r="D103" s="35"/>
+      <c r="E103" s="36"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="38" t="s">
+      <c r="A104" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B104" s="38"/>
-      <c r="C104" s="38"/>
-      <c r="D104" s="38"/>
-      <c r="E104" s="39"/>
+      <c r="B104" s="43"/>
+      <c r="C104" s="43"/>
+      <c r="D104" s="43"/>
+      <c r="E104" s="44"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="38"/>
-      <c r="B105" s="38"/>
-      <c r="C105" s="38"/>
-      <c r="D105" s="38"/>
-      <c r="E105" s="39"/>
+      <c r="A105" s="43"/>
+      <c r="B105" s="43"/>
+      <c r="C105" s="43"/>
+      <c r="D105" s="43"/>
+      <c r="E105" s="44"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="38"/>
-      <c r="B106" s="38"/>
-      <c r="C106" s="38"/>
-      <c r="D106" s="38"/>
-      <c r="E106" s="39"/>
+      <c r="A106" s="43"/>
+      <c r="B106" s="43"/>
+      <c r="C106" s="43"/>
+      <c r="D106" s="43"/>
+      <c r="E106" s="44"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="38"/>
-      <c r="B107" s="38"/>
-      <c r="C107" s="38"/>
-      <c r="D107" s="38"/>
-      <c r="E107" s="39"/>
+      <c r="A107" s="43"/>
+      <c r="B107" s="43"/>
+      <c r="C107" s="43"/>
+      <c r="D107" s="43"/>
+      <c r="E107" s="44"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="38"/>
-      <c r="B108" s="38"/>
-      <c r="C108" s="38"/>
-      <c r="D108" s="38"/>
-      <c r="E108" s="39"/>
+      <c r="A108" s="43"/>
+      <c r="B108" s="43"/>
+      <c r="C108" s="43"/>
+      <c r="D108" s="43"/>
+      <c r="E108" s="44"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="38"/>
-      <c r="B109" s="38"/>
-      <c r="C109" s="38"/>
-      <c r="D109" s="38"/>
-      <c r="E109" s="39"/>
+      <c r="A109" s="43"/>
+      <c r="B109" s="43"/>
+      <c r="C109" s="43"/>
+      <c r="D109" s="43"/>
+      <c r="E109" s="44"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="38"/>
-      <c r="B110" s="38"/>
-      <c r="C110" s="38"/>
-      <c r="D110" s="38"/>
-      <c r="E110" s="39"/>
+      <c r="A110" s="43"/>
+      <c r="B110" s="43"/>
+      <c r="C110" s="43"/>
+      <c r="D110" s="43"/>
+      <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="38"/>
-      <c r="B111" s="38"/>
-      <c r="C111" s="38"/>
-      <c r="D111" s="38"/>
-      <c r="E111" s="39"/>
+      <c r="A111" s="43"/>
+      <c r="B111" s="43"/>
+      <c r="C111" s="43"/>
+      <c r="D111" s="43"/>
+      <c r="E111" s="44"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="28"/>
-      <c r="B112" s="28"/>
-      <c r="C112" s="28"/>
-      <c r="D112" s="28"/>
-      <c r="E112" s="29"/>
+      <c r="A112" s="45"/>
+      <c r="B112" s="45"/>
+      <c r="C112" s="45"/>
+      <c r="D112" s="45"/>
+      <c r="E112" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A44:E45"/>
-    <mergeCell ref="A46:E47"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A41:E42"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A33:E39"/>
+    <mergeCell ref="A112:E112"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A58:E59"/>
+    <mergeCell ref="A91:E92"/>
+    <mergeCell ref="A93:E100"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="A69:E70"/>
+    <mergeCell ref="A60:E62"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A64:E65"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A71:E78"/>
+    <mergeCell ref="A102:E103"/>
+    <mergeCell ref="A104:E111"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A49:E50"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A79:E79"/>
     <mergeCell ref="A80:E81"/>
     <mergeCell ref="A82:E89"/>
     <mergeCell ref="A90:E90"/>
@@ -4996,27 +5098,15 @@
     <mergeCell ref="A20:E21"/>
     <mergeCell ref="A55:E55"/>
     <mergeCell ref="A27:E29"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A49:E50"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="A112:E112"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A58:E59"/>
-    <mergeCell ref="A91:E92"/>
-    <mergeCell ref="A93:E100"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="A69:E70"/>
-    <mergeCell ref="A60:E62"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="A64:E65"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A71:E78"/>
-    <mergeCell ref="A102:E103"/>
-    <mergeCell ref="A104:E111"/>
+    <mergeCell ref="A44:E45"/>
+    <mergeCell ref="A46:E47"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A41:E42"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A33:E39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5629,7 +5719,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
@@ -6034,8 +6124,8 @@
   <dimension ref="A1:AC157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P11" sqref="P11"/>
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F117" sqref="F117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6111,34 +6201,34 @@
       <c r="S1" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="T1" s="62" t="s">
+      <c r="T1" s="28" t="s">
         <v>406</v>
       </c>
-      <c r="U1" s="62" t="s">
+      <c r="U1" s="28" t="s">
         <v>407</v>
       </c>
-      <c r="V1" s="62" t="s">
+      <c r="V1" s="28" t="s">
         <v>408</v>
       </c>
-      <c r="W1" s="62" t="s">
+      <c r="W1" s="28" t="s">
         <v>409</v>
       </c>
-      <c r="X1" s="62" t="s">
+      <c r="X1" s="28" t="s">
         <v>410</v>
       </c>
-      <c r="Y1" s="62" t="s">
+      <c r="Y1" s="28" t="s">
         <v>411</v>
       </c>
-      <c r="Z1" s="62" t="s">
+      <c r="Z1" s="28" t="s">
         <v>412</v>
       </c>
-      <c r="AA1" s="62" t="s">
+      <c r="AA1" s="28" t="s">
         <v>413</v>
       </c>
-      <c r="AB1" s="62" t="s">
+      <c r="AB1" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="AC1" s="62" t="s">
+      <c r="AC1" s="28" t="s">
         <v>415</v>
       </c>
     </row>
@@ -11796,10 +11886,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41CFC106-4249-4BC9-9967-425037A65B0D}">
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:J132"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11842,160 +11932,1104 @@
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>271</v>
+      </c>
       <c r="H2" s="6"/>
+      <c r="I2" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>416</v>
+      </c>
       <c r="H3" s="6"/>
+      <c r="I3" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>273</v>
+      </c>
       <c r="H4" s="6"/>
+      <c r="I4" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>274</v>
+      </c>
       <c r="H5" s="6"/>
+      <c r="I5" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>275</v>
+      </c>
       <c r="H6" s="6"/>
+      <c r="I6" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>417</v>
+      </c>
       <c r="H7" s="6"/>
+      <c r="I7" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>418</v>
+      </c>
       <c r="H8" s="6"/>
+      <c r="I8" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>278</v>
+      </c>
       <c r="H9" s="6"/>
+      <c r="I9" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>279</v>
+      </c>
       <c r="H10" s="6"/>
+      <c r="I10" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>419</v>
+      </c>
       <c r="H11" s="6"/>
+      <c r="I11" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>420</v>
+      </c>
       <c r="H12" s="6"/>
+      <c r="I12" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>421</v>
+      </c>
       <c r="H13" s="6"/>
+      <c r="I13" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>283</v>
+      </c>
       <c r="H14" s="6"/>
+      <c r="I14" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>284</v>
+      </c>
       <c r="H15" s="6"/>
+      <c r="I15" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>285</v>
+      </c>
       <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I16" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>286</v>
+      </c>
       <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>287</v>
+      </c>
       <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I18" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>288</v>
+      </c>
       <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I19" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>289</v>
+      </c>
       <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I20" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>290</v>
+      </c>
       <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I21" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>291</v>
+      </c>
       <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I22" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>292</v>
+      </c>
       <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I23" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>293</v>
+      </c>
       <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I24" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>294</v>
+      </c>
       <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I25" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>295</v>
+      </c>
       <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I26" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>296</v>
+      </c>
       <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I27" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>422</v>
+      </c>
       <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I28" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>298</v>
+      </c>
       <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I29" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>423</v>
+      </c>
       <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I30" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>300</v>
+      </c>
       <c r="H31" s="6"/>
-    </row>
-    <row r="32" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I31" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>301</v>
+      </c>
       <c r="H32" s="6"/>
-    </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I32" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>302</v>
+      </c>
       <c r="H33" s="6"/>
-    </row>
-    <row r="34" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I33" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>303</v>
+      </c>
       <c r="H34" s="6"/>
-    </row>
-    <row r="35" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I34" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>304</v>
+      </c>
       <c r="H35" s="6"/>
-    </row>
-    <row r="36" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I35" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>305</v>
+      </c>
       <c r="H36" s="6"/>
-    </row>
-    <row r="37" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I36" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>306</v>
+      </c>
       <c r="H37" s="6"/>
-    </row>
-    <row r="38" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I37" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>307</v>
+      </c>
       <c r="H38" s="6"/>
-    </row>
-    <row r="39" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I38" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>308</v>
+      </c>
       <c r="H39" s="6"/>
-    </row>
-    <row r="40" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I39" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>309</v>
+      </c>
       <c r="H40" s="6"/>
-    </row>
-    <row r="41" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I40" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>310</v>
+      </c>
       <c r="H41" s="6"/>
-    </row>
-    <row r="42" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I41" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>311</v>
+      </c>
       <c r="H42" s="6"/>
-    </row>
-    <row r="43" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I42" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>312</v>
+      </c>
       <c r="H43" s="6"/>
-    </row>
-    <row r="44" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I43" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>313</v>
+      </c>
       <c r="H44" s="6"/>
-    </row>
-    <row r="45" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I44" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>314</v>
+      </c>
       <c r="H45" s="6"/>
-    </row>
-    <row r="46" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I45" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>315</v>
+      </c>
       <c r="H46" s="6"/>
-    </row>
-    <row r="47" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I46" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>316</v>
+      </c>
       <c r="H47" s="6"/>
-    </row>
-    <row r="48" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I47" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>317</v>
+      </c>
       <c r="H48" s="6"/>
-    </row>
-    <row r="49" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I48" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>424</v>
+      </c>
       <c r="H49" s="6"/>
-    </row>
-    <row r="50" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I49" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>319</v>
+      </c>
       <c r="H50" s="6"/>
-    </row>
-    <row r="51" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I50" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>320</v>
+      </c>
       <c r="H51" s="6"/>
-    </row>
-    <row r="52" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I51" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>321</v>
+      </c>
       <c r="H52" s="6"/>
-    </row>
-    <row r="53" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I52" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>322</v>
+      </c>
       <c r="H53" s="6"/>
+      <c r="I53" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="I54" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="I55" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="I56" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="I57" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="I58" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="I59" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="I60" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="I61" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="I62" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="I63" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="I64" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="I65" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="I66" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="I67" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="I68" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="I69" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="I70" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="I71" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="I72" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="I73" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="I74" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="I75" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="I76" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="I77" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="I78" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="I79" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="I80" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="I81" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="I82" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="I83" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="I84" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="I85" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="I86" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="I87" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="I88" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="I89" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="I90" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="I91" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="I92" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="I93" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="I94" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="I95" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="I96" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="I97" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="I98" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="I99" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="I100" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="I101" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="I102" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="I103" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="I104" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="I105" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="I106" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="I107" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="I108" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="I109" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="I110" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="I111" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="I112" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="I113" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="I114" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="I115" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="I116" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="I117" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="I118" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A119" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="I119" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A120" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="I120" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A121" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="I121" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="I122" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="I123" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A124" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="I124" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="I125" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="I126" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A127" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="I127" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A128" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="I128" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A129" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="I129" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A130" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="I130" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A131" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="I131" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A132" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="I132" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/V1/Dataset/GECCO20Workshop.xlsx
+++ b/V1/Dataset/GECCO20Workshop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pylya\Desktop\PhD\PhD\github\CSPLib\V1\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE87D91-FDB5-427F-95C0-BD68A0A83FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78186C38-7674-4D1D-88DE-A411FEA8C36F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="900" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="900" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="22" r:id="rId1"/>
@@ -1737,7 +1737,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="444">
   <si>
     <t>Sessions</t>
   </si>
@@ -2486,12 +2486,6 @@
   </si>
   <si>
     <t>Preferred Number of Timeslots:</t>
-  </si>
-  <si>
-    <t>Min Number of Timeslots:</t>
-  </si>
-  <si>
-    <t>Max Number of Timeslots:</t>
   </si>
   <si>
     <t>Submission</t>
@@ -3808,6 +3802,18 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3817,12 +3823,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3831,6 +3831,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3844,22 +3850,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3876,6 +3870,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3898,17 +3895,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4277,7 +4271,7 @@
       <c r="E10" s="51"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="59" t="s">
         <v>64</v>
       </c>
       <c r="B11" s="50"/>
@@ -4300,347 +4294,347 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="42"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="36"/>
+      <c r="A15" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="36"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="44"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="40"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="53"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="54"/>
     </row>
     <row r="20" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="55"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="55"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="56"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="55"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="56"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="55"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="56"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="57"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="58"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="56"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="57"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="58"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="56"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="57"/>
+      <c r="A26" s="57"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="58"/>
     </row>
     <row r="27" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="55"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="56"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="54"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="55"/>
+      <c r="A28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="56"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="54"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="55"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="56"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="32" t="s">
+      <c r="A30" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="33"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="60"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="33"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="60"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="33"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="60"/>
     </row>
     <row r="33" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="42"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="62"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="41"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="42"/>
+      <c r="A34" s="61"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="62"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="41"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="42"/>
+      <c r="A35" s="61"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="62"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="41"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="42"/>
+      <c r="A36" s="61"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="62"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="41"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="42"/>
+      <c r="A37" s="61"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="62"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="41"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="42"/>
+      <c r="A38" s="61"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="62"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="41"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="42"/>
+      <c r="A39" s="61"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="62"/>
     </row>
     <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="37"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="38"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="42"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="34" t="s">
+      <c r="A41" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="36"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="38"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="35"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="36"/>
+      <c r="A42" s="37"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="38"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="39" t="s">
+      <c r="A43" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="40"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="44"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="29" t="s">
+      <c r="A44" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="31"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="35"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="30"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="31"/>
+      <c r="A45" s="34"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="35"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="29" t="s">
+      <c r="A46" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="30"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="31"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="35"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="30"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="31"/>
+      <c r="A47" s="34"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="35"/>
     </row>
     <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="37"/>
-      <c r="B48" s="37"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="38"/>
+      <c r="A48" s="41"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="42"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="34" t="s">
+      <c r="A49" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="35"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="36"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="38"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="35"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="36"/>
+      <c r="A50" s="37"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="38"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="39" t="s">
+      <c r="A51" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="39"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="40"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="44"/>
     </row>
     <row r="52" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="59" t="s">
+      <c r="A52" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B52" s="59"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="60"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="32"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="29" t="s">
+      <c r="A53" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B53" s="29"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
       <c r="E53" s="47"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="29"/>
-      <c r="B54" s="29"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
+      <c r="A54" s="33"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
       <c r="E54" s="47"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="59" t="s">
+      <c r="A55" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B55" s="59"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="60"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="32"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="59" t="s">
+      <c r="A56" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B56" s="59"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="60"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="32"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="27" t="s">
@@ -4649,418 +4643,448 @@
       <c r="E57" s="18"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="29" t="s">
+      <c r="A58" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B58" s="30"/>
-      <c r="C58" s="30"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="31"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="35"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="30"/>
-      <c r="B59" s="30"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="31"/>
+      <c r="A59" s="34"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="35"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="43" t="s">
+      <c r="A60" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B60" s="43"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="43"/>
-      <c r="E60" s="44"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="40"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="43"/>
-      <c r="B61" s="43"/>
-      <c r="C61" s="43"/>
-      <c r="D61" s="43"/>
-      <c r="E61" s="44"/>
+      <c r="A61" s="39"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="40"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="43"/>
-      <c r="B62" s="43"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="43"/>
-      <c r="E62" s="44"/>
+      <c r="A62" s="39"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="40"/>
     </row>
     <row r="63" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="37"/>
-      <c r="B63" s="37"/>
-      <c r="C63" s="37"/>
-      <c r="D63" s="37"/>
-      <c r="E63" s="38"/>
+      <c r="A63" s="41"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="42"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="34" t="s">
+      <c r="A64" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B64" s="35"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="36"/>
+      <c r="B64" s="37"/>
+      <c r="C64" s="37"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="38"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="35"/>
-      <c r="B65" s="35"/>
-      <c r="C65" s="35"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="36"/>
+      <c r="A65" s="37"/>
+      <c r="B65" s="37"/>
+      <c r="C65" s="37"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="38"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="39" t="s">
+      <c r="A66" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="B66" s="39"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="40"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="59" t="s">
+      <c r="A67" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B67" s="59"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="59"/>
-      <c r="E67" s="60"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="32"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="45"/>
-      <c r="B68" s="45"/>
-      <c r="C68" s="45"/>
-      <c r="D68" s="45"/>
-      <c r="E68" s="46"/>
+      <c r="A68" s="29"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="30"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="34" t="s">
+      <c r="A69" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B69" s="35"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="36"/>
+      <c r="B69" s="37"/>
+      <c r="C69" s="37"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="38"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="35"/>
-      <c r="B70" s="35"/>
-      <c r="C70" s="35"/>
-      <c r="D70" s="35"/>
-      <c r="E70" s="36"/>
+      <c r="A70" s="37"/>
+      <c r="B70" s="37"/>
+      <c r="C70" s="37"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="43" t="s">
+      <c r="A71" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="B71" s="43"/>
-      <c r="C71" s="43"/>
-      <c r="D71" s="43"/>
-      <c r="E71" s="44"/>
+      <c r="B71" s="39"/>
+      <c r="C71" s="39"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="40"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="43"/>
-      <c r="B72" s="43"/>
-      <c r="C72" s="43"/>
-      <c r="D72" s="43"/>
-      <c r="E72" s="44"/>
+      <c r="A72" s="39"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="40"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="43"/>
-      <c r="B73" s="43"/>
-      <c r="C73" s="43"/>
-      <c r="D73" s="43"/>
-      <c r="E73" s="44"/>
+      <c r="A73" s="39"/>
+      <c r="B73" s="39"/>
+      <c r="C73" s="39"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="40"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="43"/>
-      <c r="B74" s="43"/>
-      <c r="C74" s="43"/>
-      <c r="D74" s="43"/>
-      <c r="E74" s="44"/>
+      <c r="A74" s="39"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="40"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="43"/>
-      <c r="B75" s="43"/>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="44"/>
+      <c r="A75" s="39"/>
+      <c r="B75" s="39"/>
+      <c r="C75" s="39"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="40"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="43"/>
-      <c r="B76" s="43"/>
-      <c r="C76" s="43"/>
-      <c r="D76" s="43"/>
-      <c r="E76" s="44"/>
+      <c r="A76" s="39"/>
+      <c r="B76" s="39"/>
+      <c r="C76" s="39"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="40"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="43"/>
-      <c r="B77" s="43"/>
-      <c r="C77" s="43"/>
-      <c r="D77" s="43"/>
-      <c r="E77" s="44"/>
+      <c r="A77" s="39"/>
+      <c r="B77" s="39"/>
+      <c r="C77" s="39"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="40"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="43"/>
-      <c r="B78" s="43"/>
-      <c r="C78" s="43"/>
-      <c r="D78" s="43"/>
-      <c r="E78" s="44"/>
+      <c r="A78" s="39"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="39"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="40"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="61"/>
-      <c r="B79" s="61"/>
-      <c r="C79" s="61"/>
-      <c r="D79" s="61"/>
-      <c r="E79" s="62"/>
+      <c r="A79" s="45"/>
+      <c r="B79" s="45"/>
+      <c r="C79" s="45"/>
+      <c r="D79" s="45"/>
+      <c r="E79" s="46"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="34" t="s">
+      <c r="A80" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B80" s="35"/>
-      <c r="C80" s="35"/>
-      <c r="D80" s="35"/>
-      <c r="E80" s="36"/>
+      <c r="B80" s="37"/>
+      <c r="C80" s="37"/>
+      <c r="D80" s="37"/>
+      <c r="E80" s="38"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="35"/>
-      <c r="B81" s="35"/>
-      <c r="C81" s="35"/>
-      <c r="D81" s="35"/>
-      <c r="E81" s="36"/>
+      <c r="A81" s="37"/>
+      <c r="B81" s="37"/>
+      <c r="C81" s="37"/>
+      <c r="D81" s="37"/>
+      <c r="E81" s="38"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="43" t="s">
+      <c r="A82" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B82" s="43"/>
-      <c r="C82" s="43"/>
-      <c r="D82" s="43"/>
-      <c r="E82" s="44"/>
+      <c r="B82" s="39"/>
+      <c r="C82" s="39"/>
+      <c r="D82" s="39"/>
+      <c r="E82" s="40"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="43"/>
-      <c r="B83" s="43"/>
-      <c r="C83" s="43"/>
-      <c r="D83" s="43"/>
-      <c r="E83" s="44"/>
+      <c r="A83" s="39"/>
+      <c r="B83" s="39"/>
+      <c r="C83" s="39"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="40"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="43"/>
-      <c r="B84" s="43"/>
-      <c r="C84" s="43"/>
-      <c r="D84" s="43"/>
-      <c r="E84" s="44"/>
+      <c r="A84" s="39"/>
+      <c r="B84" s="39"/>
+      <c r="C84" s="39"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="40"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="43"/>
-      <c r="B85" s="43"/>
-      <c r="C85" s="43"/>
-      <c r="D85" s="43"/>
-      <c r="E85" s="44"/>
+      <c r="A85" s="39"/>
+      <c r="B85" s="39"/>
+      <c r="C85" s="39"/>
+      <c r="D85" s="39"/>
+      <c r="E85" s="40"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="43"/>
-      <c r="B86" s="43"/>
-      <c r="C86" s="43"/>
-      <c r="D86" s="43"/>
-      <c r="E86" s="44"/>
+      <c r="A86" s="39"/>
+      <c r="B86" s="39"/>
+      <c r="C86" s="39"/>
+      <c r="D86" s="39"/>
+      <c r="E86" s="40"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="43"/>
-      <c r="B87" s="43"/>
-      <c r="C87" s="43"/>
-      <c r="D87" s="43"/>
-      <c r="E87" s="44"/>
+      <c r="A87" s="39"/>
+      <c r="B87" s="39"/>
+      <c r="C87" s="39"/>
+      <c r="D87" s="39"/>
+      <c r="E87" s="40"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="43"/>
-      <c r="B88" s="43"/>
-      <c r="C88" s="43"/>
-      <c r="D88" s="43"/>
-      <c r="E88" s="44"/>
+      <c r="A88" s="39"/>
+      <c r="B88" s="39"/>
+      <c r="C88" s="39"/>
+      <c r="D88" s="39"/>
+      <c r="E88" s="40"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="43"/>
-      <c r="B89" s="43"/>
-      <c r="C89" s="43"/>
-      <c r="D89" s="43"/>
-      <c r="E89" s="44"/>
+      <c r="A89" s="39"/>
+      <c r="B89" s="39"/>
+      <c r="C89" s="39"/>
+      <c r="D89" s="39"/>
+      <c r="E89" s="40"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="45"/>
-      <c r="B90" s="45"/>
-      <c r="C90" s="45"/>
-      <c r="D90" s="45"/>
-      <c r="E90" s="46"/>
+      <c r="A90" s="29"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="30"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="34" t="s">
+      <c r="A91" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B91" s="35"/>
-      <c r="C91" s="35"/>
-      <c r="D91" s="35"/>
-      <c r="E91" s="36"/>
+      <c r="B91" s="37"/>
+      <c r="C91" s="37"/>
+      <c r="D91" s="37"/>
+      <c r="E91" s="38"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="35"/>
-      <c r="B92" s="35"/>
-      <c r="C92" s="35"/>
-      <c r="D92" s="35"/>
-      <c r="E92" s="36"/>
+      <c r="A92" s="37"/>
+      <c r="B92" s="37"/>
+      <c r="C92" s="37"/>
+      <c r="D92" s="37"/>
+      <c r="E92" s="38"/>
     </row>
     <row r="93" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="43" t="s">
+      <c r="A93" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B93" s="43"/>
-      <c r="C93" s="43"/>
-      <c r="D93" s="43"/>
-      <c r="E93" s="44"/>
+      <c r="B93" s="39"/>
+      <c r="C93" s="39"/>
+      <c r="D93" s="39"/>
+      <c r="E93" s="40"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="43"/>
-      <c r="B94" s="43"/>
-      <c r="C94" s="43"/>
-      <c r="D94" s="43"/>
-      <c r="E94" s="44"/>
+      <c r="A94" s="39"/>
+      <c r="B94" s="39"/>
+      <c r="C94" s="39"/>
+      <c r="D94" s="39"/>
+      <c r="E94" s="40"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="43"/>
-      <c r="B95" s="43"/>
-      <c r="C95" s="43"/>
-      <c r="D95" s="43"/>
-      <c r="E95" s="44"/>
+      <c r="A95" s="39"/>
+      <c r="B95" s="39"/>
+      <c r="C95" s="39"/>
+      <c r="D95" s="39"/>
+      <c r="E95" s="40"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="43"/>
-      <c r="B96" s="43"/>
-      <c r="C96" s="43"/>
-      <c r="D96" s="43"/>
-      <c r="E96" s="44"/>
+      <c r="A96" s="39"/>
+      <c r="B96" s="39"/>
+      <c r="C96" s="39"/>
+      <c r="D96" s="39"/>
+      <c r="E96" s="40"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="43"/>
-      <c r="B97" s="43"/>
-      <c r="C97" s="43"/>
-      <c r="D97" s="43"/>
-      <c r="E97" s="44"/>
+      <c r="A97" s="39"/>
+      <c r="B97" s="39"/>
+      <c r="C97" s="39"/>
+      <c r="D97" s="39"/>
+      <c r="E97" s="40"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="43"/>
-      <c r="B98" s="43"/>
-      <c r="C98" s="43"/>
-      <c r="D98" s="43"/>
-      <c r="E98" s="44"/>
+      <c r="A98" s="39"/>
+      <c r="B98" s="39"/>
+      <c r="C98" s="39"/>
+      <c r="D98" s="39"/>
+      <c r="E98" s="40"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="43"/>
-      <c r="B99" s="43"/>
-      <c r="C99" s="43"/>
-      <c r="D99" s="43"/>
-      <c r="E99" s="44"/>
+      <c r="A99" s="39"/>
+      <c r="B99" s="39"/>
+      <c r="C99" s="39"/>
+      <c r="D99" s="39"/>
+      <c r="E99" s="40"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="43"/>
-      <c r="B100" s="43"/>
-      <c r="C100" s="43"/>
-      <c r="D100" s="43"/>
-      <c r="E100" s="44"/>
+      <c r="A100" s="39"/>
+      <c r="B100" s="39"/>
+      <c r="C100" s="39"/>
+      <c r="D100" s="39"/>
+      <c r="E100" s="40"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="45"/>
-      <c r="B101" s="45"/>
-      <c r="C101" s="45"/>
-      <c r="D101" s="45"/>
-      <c r="E101" s="46"/>
+      <c r="A101" s="29"/>
+      <c r="B101" s="29"/>
+      <c r="C101" s="29"/>
+      <c r="D101" s="29"/>
+      <c r="E101" s="30"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="34" t="s">
+      <c r="A102" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B102" s="35"/>
-      <c r="C102" s="35"/>
-      <c r="D102" s="35"/>
-      <c r="E102" s="36"/>
+      <c r="B102" s="37"/>
+      <c r="C102" s="37"/>
+      <c r="D102" s="37"/>
+      <c r="E102" s="38"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="35"/>
-      <c r="B103" s="35"/>
-      <c r="C103" s="35"/>
-      <c r="D103" s="35"/>
-      <c r="E103" s="36"/>
+      <c r="A103" s="37"/>
+      <c r="B103" s="37"/>
+      <c r="C103" s="37"/>
+      <c r="D103" s="37"/>
+      <c r="E103" s="38"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="43" t="s">
+      <c r="A104" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="B104" s="43"/>
-      <c r="C104" s="43"/>
-      <c r="D104" s="43"/>
-      <c r="E104" s="44"/>
+      <c r="B104" s="39"/>
+      <c r="C104" s="39"/>
+      <c r="D104" s="39"/>
+      <c r="E104" s="40"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="43"/>
-      <c r="B105" s="43"/>
-      <c r="C105" s="43"/>
-      <c r="D105" s="43"/>
-      <c r="E105" s="44"/>
+      <c r="A105" s="39"/>
+      <c r="B105" s="39"/>
+      <c r="C105" s="39"/>
+      <c r="D105" s="39"/>
+      <c r="E105" s="40"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="43"/>
-      <c r="B106" s="43"/>
-      <c r="C106" s="43"/>
-      <c r="D106" s="43"/>
-      <c r="E106" s="44"/>
+      <c r="A106" s="39"/>
+      <c r="B106" s="39"/>
+      <c r="C106" s="39"/>
+      <c r="D106" s="39"/>
+      <c r="E106" s="40"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="43"/>
-      <c r="B107" s="43"/>
-      <c r="C107" s="43"/>
-      <c r="D107" s="43"/>
-      <c r="E107" s="44"/>
+      <c r="A107" s="39"/>
+      <c r="B107" s="39"/>
+      <c r="C107" s="39"/>
+      <c r="D107" s="39"/>
+      <c r="E107" s="40"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="43"/>
-      <c r="B108" s="43"/>
-      <c r="C108" s="43"/>
-      <c r="D108" s="43"/>
-      <c r="E108" s="44"/>
+      <c r="A108" s="39"/>
+      <c r="B108" s="39"/>
+      <c r="C108" s="39"/>
+      <c r="D108" s="39"/>
+      <c r="E108" s="40"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="43"/>
-      <c r="B109" s="43"/>
-      <c r="C109" s="43"/>
-      <c r="D109" s="43"/>
-      <c r="E109" s="44"/>
+      <c r="A109" s="39"/>
+      <c r="B109" s="39"/>
+      <c r="C109" s="39"/>
+      <c r="D109" s="39"/>
+      <c r="E109" s="40"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="43"/>
-      <c r="B110" s="43"/>
-      <c r="C110" s="43"/>
-      <c r="D110" s="43"/>
-      <c r="E110" s="44"/>
+      <c r="A110" s="39"/>
+      <c r="B110" s="39"/>
+      <c r="C110" s="39"/>
+      <c r="D110" s="39"/>
+      <c r="E110" s="40"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="43"/>
-      <c r="B111" s="43"/>
-      <c r="C111" s="43"/>
-      <c r="D111" s="43"/>
-      <c r="E111" s="44"/>
+      <c r="A111" s="39"/>
+      <c r="B111" s="39"/>
+      <c r="C111" s="39"/>
+      <c r="D111" s="39"/>
+      <c r="E111" s="40"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="45"/>
-      <c r="B112" s="45"/>
-      <c r="C112" s="45"/>
-      <c r="D112" s="45"/>
-      <c r="E112" s="46"/>
+      <c r="A112" s="29"/>
+      <c r="B112" s="29"/>
+      <c r="C112" s="29"/>
+      <c r="D112" s="29"/>
+      <c r="E112" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="A44:E45"/>
+    <mergeCell ref="A46:E47"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A41:E42"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A33:E39"/>
+    <mergeCell ref="A80:E81"/>
+    <mergeCell ref="A82:E89"/>
+    <mergeCell ref="A90:E90"/>
+    <mergeCell ref="A53:E54"/>
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="A4:E10"/>
+    <mergeCell ref="A15:E16"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A17:E18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A22:E23"/>
+    <mergeCell ref="A24:E26"/>
+    <mergeCell ref="A11:E13"/>
+    <mergeCell ref="A20:E21"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A27:E29"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A49:E50"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A79:E79"/>
     <mergeCell ref="A112:E112"/>
     <mergeCell ref="A56:E56"/>
     <mergeCell ref="A58:E59"/>
@@ -5077,36 +5101,6 @@
     <mergeCell ref="A71:E78"/>
     <mergeCell ref="A102:E103"/>
     <mergeCell ref="A104:E111"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A49:E50"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="A80:E81"/>
-    <mergeCell ref="A82:E89"/>
-    <mergeCell ref="A90:E90"/>
-    <mergeCell ref="A53:E54"/>
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="A4:E10"/>
-    <mergeCell ref="A15:E16"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A17:E18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A22:E23"/>
-    <mergeCell ref="A24:E26"/>
-    <mergeCell ref="A11:E13"/>
-    <mergeCell ref="A20:E21"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A27:E29"/>
-    <mergeCell ref="A44:E45"/>
-    <mergeCell ref="A46:E47"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A41:E42"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A33:E39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5134,93 +5128,93 @@
     <row r="1" spans="1:27" s="3" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7"/>
       <c r="B1" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>140</v>
-      </c>
       <c r="G1" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="V1" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="W1" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="X1" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="Y1" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="Z1" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AA1" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B2" s="8"/>
     </row>
     <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -5239,7 +5233,7 @@
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -5247,7 +5241,7 @@
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -5256,7 +5250,7 @@
     </row>
     <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -5266,7 +5260,7 @@
     </row>
     <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -5277,7 +5271,7 @@
     </row>
     <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -5292,7 +5286,7 @@
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -5305,7 +5299,7 @@
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -5319,7 +5313,7 @@
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -5334,7 +5328,7 @@
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -5350,7 +5344,7 @@
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -5367,7 +5361,7 @@
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -5385,7 +5379,7 @@
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -5404,7 +5398,7 @@
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -5424,7 +5418,7 @@
     </row>
     <row r="17" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -5445,7 +5439,7 @@
     </row>
     <row r="18" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -5467,7 +5461,7 @@
     </row>
     <row r="19" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -5490,7 +5484,7 @@
     </row>
     <row r="20" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -5514,7 +5508,7 @@
     </row>
     <row r="21" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -5539,7 +5533,7 @@
     </row>
     <row r="22" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -5565,7 +5559,7 @@
     </row>
     <row r="23" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -5592,7 +5586,7 @@
     </row>
     <row r="24" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -5620,7 +5614,7 @@
     </row>
     <row r="25" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -5649,7 +5643,7 @@
     </row>
     <row r="26" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -5679,7 +5673,7 @@
     </row>
     <row r="27" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -5734,34 +5728,34 @@
     <row r="1" spans="1:16" s="3" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>415</v>
       </c>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -5781,12 +5775,12 @@
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5801,12 +5795,12 @@
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -5816,10 +5810,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B4773B-09CB-4AE1-B7A2-EA1A4F4D3191}">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5854,7 +5848,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>52</v>
@@ -5937,7 +5931,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D10" s="21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E10" s="25">
         <v>9</v>
@@ -6093,22 +6087,6 @@
       </c>
       <c r="E29" s="25">
         <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D30" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="E30" s="25">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D31" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E31" s="25">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -6145,7 +6123,7 @@
   <sheetData>
     <row r="1" spans="1:29" s="7" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -6184,10 +6162,10 @@
         <v>48</v>
       </c>
       <c r="N1" s="16" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="P1" s="16" t="s">
         <v>49</v>
@@ -6196,48 +6174,48 @@
         <v>50</v>
       </c>
       <c r="R1" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="T1" s="28" t="s">
         <v>404</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="U1" s="28" t="s">
         <v>405</v>
       </c>
-      <c r="T1" s="28" t="s">
+      <c r="V1" s="28" t="s">
         <v>406</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="W1" s="28" t="s">
         <v>407</v>
       </c>
-      <c r="V1" s="28" t="s">
+      <c r="X1" s="28" t="s">
         <v>408</v>
       </c>
-      <c r="W1" s="28" t="s">
+      <c r="Y1" s="28" t="s">
         <v>409</v>
       </c>
-      <c r="X1" s="28" t="s">
+      <c r="Z1" s="28" t="s">
         <v>410</v>
       </c>
-      <c r="Y1" s="28" t="s">
+      <c r="AA1" s="28" t="s">
         <v>411</v>
       </c>
-      <c r="Z1" s="28" t="s">
+      <c r="AB1" s="28" t="s">
         <v>412</v>
       </c>
-      <c r="AA1" s="28" t="s">
+      <c r="AC1" s="28" t="s">
         <v>413</v>
-      </c>
-      <c r="AB1" s="28" t="s">
-        <v>414</v>
-      </c>
-      <c r="AC1" s="28" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -6257,7 +6235,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K2" s="9"/>
       <c r="N2" s="1"/>
@@ -6269,10 +6247,10 @@
     </row>
     <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -6292,7 +6270,7 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K3" s="9"/>
       <c r="N3" s="1"/>
@@ -6308,10 +6286,10 @@
     </row>
     <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -6331,7 +6309,7 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K4" s="9"/>
       <c r="N4" s="1"/>
@@ -6347,10 +6325,10 @@
     </row>
     <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -6370,7 +6348,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="1">
@@ -6396,10 +6374,10 @@
     </row>
     <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -6419,7 +6397,7 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K6" s="9"/>
       <c r="N6" s="1"/>
@@ -6435,10 +6413,10 @@
     </row>
     <row r="7" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -6458,7 +6436,7 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K7" s="9"/>
       <c r="N7" s="1"/>
@@ -6474,10 +6452,10 @@
     </row>
     <row r="8" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -6497,7 +6475,7 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K8" s="9"/>
       <c r="N8" s="1"/>
@@ -6513,10 +6491,10 @@
     </row>
     <row r="9" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -6536,7 +6514,7 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K9" s="9"/>
       <c r="L9" s="1">
@@ -6562,10 +6540,10 @@
     </row>
     <row r="10" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -6585,7 +6563,7 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K10" s="9"/>
       <c r="N10" s="1"/>
@@ -6597,10 +6575,10 @@
     </row>
     <row r="11" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -6620,7 +6598,7 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="1">
@@ -6644,10 +6622,10 @@
     </row>
     <row r="12" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -6667,7 +6645,7 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K12" s="9"/>
       <c r="L12" s="1">
@@ -6689,10 +6667,10 @@
     </row>
     <row r="13" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -6712,7 +6690,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K13" s="9"/>
       <c r="L13" s="1">
@@ -6734,10 +6712,10 @@
     </row>
     <row r="14" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -6757,7 +6735,7 @@
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K14" s="9"/>
       <c r="L14" s="1">
@@ -6781,10 +6759,10 @@
     </row>
     <row r="15" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -6804,7 +6782,7 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K15" s="9"/>
       <c r="N15" s="1"/>
@@ -6820,10 +6798,10 @@
     </row>
     <row r="16" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -6843,7 +6821,7 @@
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K16" s="9"/>
       <c r="N16" s="1"/>
@@ -6859,10 +6837,10 @@
     </row>
     <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -6882,7 +6860,7 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K17" s="9"/>
       <c r="N17" s="1"/>
@@ -6898,10 +6876,10 @@
     </row>
     <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -6921,7 +6899,7 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K18" s="9"/>
       <c r="N18" s="1"/>
@@ -6933,10 +6911,10 @@
     </row>
     <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -6956,7 +6934,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1">
@@ -6971,10 +6949,10 @@
     </row>
     <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -6994,7 +6972,7 @@
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -7005,10 +6983,10 @@
     </row>
     <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -7028,7 +7006,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L21" s="1">
         <v>10</v>
@@ -7053,10 +7031,10 @@
     </row>
     <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -7076,7 +7054,7 @@
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="L22" s="1">
         <v>10</v>
@@ -7101,10 +7079,10 @@
     </row>
     <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -7124,7 +7102,7 @@
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1">
@@ -7139,10 +7117,10 @@
     </row>
     <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -7162,7 +7140,7 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K24" s="9"/>
       <c r="N24" s="1"/>
@@ -7178,10 +7156,10 @@
     </row>
     <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
@@ -7201,7 +7179,7 @@
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K25" s="9"/>
       <c r="N25" s="1"/>
@@ -7217,10 +7195,10 @@
     </row>
     <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -7240,7 +7218,7 @@
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K26" s="9"/>
       <c r="N26" s="1"/>
@@ -7256,10 +7234,10 @@
     </row>
     <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C27" s="1">
         <v>5</v>
@@ -7279,7 +7257,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K27" s="9"/>
       <c r="N27" s="1"/>
@@ -7291,10 +7269,10 @@
     </row>
     <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C28" s="1">
         <v>5</v>
@@ -7314,7 +7292,7 @@
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L28" s="1">
         <v>10</v>
@@ -7339,10 +7317,10 @@
     </row>
     <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
@@ -7362,7 +7340,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
@@ -7373,10 +7351,10 @@
     </row>
     <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
@@ -7396,7 +7374,7 @@
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1">
@@ -7411,10 +7389,10 @@
     </row>
     <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
@@ -7433,7 +7411,7 @@
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
@@ -7444,10 +7422,10 @@
     </row>
     <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
@@ -7467,7 +7445,7 @@
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -7478,10 +7456,10 @@
     </row>
     <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
@@ -7501,7 +7479,7 @@
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K33" s="9"/>
       <c r="N33" s="1"/>
@@ -7513,10 +7491,10 @@
     </row>
     <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -7536,7 +7514,7 @@
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K34" s="9"/>
       <c r="N34" s="1"/>
@@ -7548,10 +7526,10 @@
     </row>
     <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
@@ -7571,7 +7549,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K35" s="9"/>
       <c r="L35" s="1">
@@ -7597,10 +7575,10 @@
     </row>
     <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
@@ -7620,7 +7598,7 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="L36" s="1">
         <v>10</v>
@@ -7645,10 +7623,10 @@
     </row>
     <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
@@ -7668,7 +7646,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K37" s="9"/>
       <c r="L37" s="1">
@@ -7694,10 +7672,10 @@
     </row>
     <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
@@ -7717,7 +7695,7 @@
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
       <c r="J38" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K38" s="9"/>
       <c r="N38" s="1">
@@ -7737,10 +7715,10 @@
     </row>
     <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
@@ -7758,7 +7736,7 @@
         <v>1</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
@@ -7769,10 +7747,10 @@
     </row>
     <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C40" s="1">
         <v>5</v>
@@ -7790,7 +7768,7 @@
         <v>1</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
@@ -7801,10 +7779,10 @@
     </row>
     <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
@@ -7822,7 +7800,7 @@
         <v>1</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
@@ -7833,10 +7811,10 @@
     </row>
     <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
@@ -7854,7 +7832,7 @@
         <v>1</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="N42" s="1">
         <v>5</v>
@@ -7873,10 +7851,10 @@
     </row>
     <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
@@ -7894,7 +7872,7 @@
         <v>1</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
@@ -7905,10 +7883,10 @@
     </row>
     <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C44" s="1">
         <v>5</v>
@@ -7926,7 +7904,7 @@
         <v>1</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L44" s="1">
         <v>10</v>
@@ -7951,10 +7929,10 @@
     </row>
     <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C45" s="1">
         <v>5</v>
@@ -7972,7 +7950,7 @@
         <v>1</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
@@ -7983,10 +7961,10 @@
     </row>
     <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C46" s="1">
         <v>1</v>
@@ -8004,7 +7982,7 @@
         <v>1</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1">
@@ -8019,10 +7997,10 @@
     </row>
     <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C47" s="1">
         <v>1</v>
@@ -8040,7 +8018,7 @@
         <v>1</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
@@ -8051,10 +8029,10 @@
     </row>
     <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C48" s="1">
         <v>1</v>
@@ -8072,7 +8050,7 @@
         <v>1</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="L48" s="1">
         <v>10</v>
@@ -8093,10 +8071,10 @@
     </row>
     <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C49" s="1">
         <v>1</v>
@@ -8114,7 +8092,7 @@
         <v>1</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="N49" s="1"/>
       <c r="O49" s="1">
@@ -8129,10 +8107,10 @@
     </row>
     <row r="50" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C50" s="1">
         <v>1</v>
@@ -8150,7 +8128,7 @@
         <v>1</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="N50" s="1"/>
       <c r="O50" s="1">
@@ -8165,10 +8143,10 @@
     </row>
     <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C51" s="1">
         <v>1</v>
@@ -8186,7 +8164,7 @@
         <v>1</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="N51" s="1"/>
       <c r="O51" s="1">
@@ -8201,10 +8179,10 @@
     </row>
     <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C52" s="1">
         <v>1</v>
@@ -8222,7 +8200,7 @@
         <v>1</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1">
@@ -8237,10 +8215,10 @@
     </row>
     <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C53" s="1">
         <v>1</v>
@@ -8258,7 +8236,7 @@
         <v>1</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="N53" s="1"/>
       <c r="O53" s="1">
@@ -8273,10 +8251,10 @@
     </row>
     <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C54" s="1">
         <v>5</v>
@@ -8294,7 +8272,7 @@
         <v>1</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="L54" s="1">
         <v>100</v>
@@ -8321,10 +8299,10 @@
     </row>
     <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C55" s="1">
         <v>5</v>
@@ -8342,7 +8320,7 @@
         <v>1</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
@@ -8353,10 +8331,10 @@
     </row>
     <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C56" s="1">
         <v>5</v>
@@ -8374,7 +8352,7 @@
         <v>1</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
@@ -8385,10 +8363,10 @@
     </row>
     <row r="57" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C57" s="1">
         <v>1</v>
@@ -8406,7 +8384,7 @@
         <v>1</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
@@ -8417,10 +8395,10 @@
     </row>
     <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C58" s="1">
         <v>1</v>
@@ -8438,7 +8416,7 @@
         <v>1</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="N58" s="1"/>
       <c r="O58" s="1">
@@ -8453,10 +8431,10 @@
     </row>
     <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C59" s="1">
         <v>1</v>
@@ -8474,7 +8452,7 @@
         <v>1</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="N59" s="1"/>
       <c r="O59" s="1">
@@ -8489,10 +8467,10 @@
     </row>
     <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C60" s="1">
         <v>1</v>
@@ -8510,7 +8488,7 @@
         <v>1</v>
       </c>
       <c r="J60" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
@@ -8521,10 +8499,10 @@
     </row>
     <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C61" s="1">
         <v>1</v>
@@ -8542,7 +8520,7 @@
         <v>1</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="M61" s="1">
         <v>1</v>
@@ -8566,10 +8544,10 @@
     </row>
     <row r="62" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C62" s="1">
         <v>1</v>
@@ -8587,7 +8565,7 @@
         <v>1</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
@@ -8598,10 +8576,10 @@
     </row>
     <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C63" s="1">
         <v>1</v>
@@ -8619,7 +8597,7 @@
         <v>1</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
@@ -8630,10 +8608,10 @@
     </row>
     <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C64" s="1">
         <v>1</v>
@@ -8651,7 +8629,7 @@
         <v>1</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
@@ -8662,10 +8640,10 @@
     </row>
     <row r="65" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C65" s="1">
         <v>1</v>
@@ -8683,7 +8661,7 @@
         <v>1</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="N65" s="1"/>
       <c r="O65" s="1">
@@ -8698,10 +8676,10 @@
     </row>
     <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C66" s="1">
         <v>1</v>
@@ -8719,7 +8697,7 @@
         <v>1</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
@@ -8730,10 +8708,10 @@
     </row>
     <row r="67" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C67" s="1">
         <v>1</v>
@@ -8751,7 +8729,7 @@
         <v>1</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L67" s="1">
         <v>10</v>
@@ -8776,10 +8754,10 @@
     </row>
     <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C68" s="1">
         <v>1</v>
@@ -8797,7 +8775,7 @@
         <v>1</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="N68" s="1">
         <v>5</v>
@@ -8816,10 +8794,10 @@
     </row>
     <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C69" s="1">
         <v>5</v>
@@ -8837,7 +8815,7 @@
         <v>1</v>
       </c>
       <c r="J69" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="N69" s="1"/>
       <c r="O69" s="1">
@@ -8852,10 +8830,10 @@
     </row>
     <row r="70" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C70" s="1">
         <v>1</v>
@@ -8873,7 +8851,7 @@
         <v>1</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="N70" s="1"/>
       <c r="O70" s="1">
@@ -8888,10 +8866,10 @@
     </row>
     <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C71" s="1">
         <v>1</v>
@@ -8909,7 +8887,7 @@
         <v>1</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L71" s="1">
         <v>10</v>
@@ -8934,10 +8912,10 @@
     </row>
     <row r="72" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C72" s="1">
         <v>1</v>
@@ -8955,7 +8933,7 @@
         <v>1</v>
       </c>
       <c r="J72" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
@@ -8966,10 +8944,10 @@
     </row>
     <row r="73" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C73" s="1">
         <v>1</v>
@@ -8987,7 +8965,7 @@
         <v>1</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
@@ -8998,10 +8976,10 @@
     </row>
     <row r="74" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C74" s="1">
         <v>1</v>
@@ -9019,7 +8997,7 @@
         <v>1</v>
       </c>
       <c r="J74" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="M74" s="1">
         <v>1</v>
@@ -9043,10 +9021,10 @@
     </row>
     <row r="75" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C75" s="1">
         <v>1</v>
@@ -9064,7 +9042,7 @@
         <v>1</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="N75" s="1"/>
       <c r="O75" s="1">
@@ -9079,10 +9057,10 @@
     </row>
     <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C76" s="1">
         <v>1</v>
@@ -9100,7 +9078,7 @@
         <v>1</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="N76" s="1"/>
       <c r="O76" s="1">
@@ -9115,10 +9093,10 @@
     </row>
     <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C77" s="1">
         <v>1</v>
@@ -9136,7 +9114,7 @@
         <v>1</v>
       </c>
       <c r="J77" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N77" s="1">
         <v>5</v>
@@ -9155,10 +9133,10 @@
     </row>
     <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C78" s="1">
         <v>1</v>
@@ -9176,7 +9154,7 @@
         <v>1</v>
       </c>
       <c r="J78" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="N78" s="1">
         <v>5</v>
@@ -9195,10 +9173,10 @@
     </row>
     <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C79" s="1">
         <v>1</v>
@@ -9216,7 +9194,7 @@
         <v>1</v>
       </c>
       <c r="J79" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="N79" s="1"/>
       <c r="O79" s="1">
@@ -9231,10 +9209,10 @@
     </row>
     <row r="80" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C80" s="1">
         <v>1</v>
@@ -9252,7 +9230,7 @@
         <v>1</v>
       </c>
       <c r="J80" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="N80" s="1"/>
       <c r="O80" s="1">
@@ -9267,10 +9245,10 @@
     </row>
     <row r="81" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C81" s="1">
         <v>5</v>
@@ -9288,7 +9266,7 @@
         <v>1</v>
       </c>
       <c r="J81" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="N81" s="1"/>
       <c r="O81" s="1">
@@ -9303,10 +9281,10 @@
     </row>
     <row r="82" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C82" s="1">
         <v>5</v>
@@ -9324,7 +9302,7 @@
         <v>1</v>
       </c>
       <c r="J82" s="9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N82" s="1"/>
       <c r="O82" s="1">
@@ -9339,10 +9317,10 @@
     </row>
     <row r="83" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C83" s="1">
         <v>5</v>
@@ -9360,7 +9338,7 @@
         <v>1</v>
       </c>
       <c r="J83" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N83" s="1"/>
       <c r="O83" s="1">
@@ -9375,10 +9353,10 @@
     </row>
     <row r="84" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C84" s="1">
         <v>5</v>
@@ -9396,7 +9374,7 @@
         <v>1</v>
       </c>
       <c r="J84" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="N84" s="1"/>
       <c r="O84" s="1">
@@ -9411,10 +9389,10 @@
     </row>
     <row r="85" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C85" s="1">
         <v>5</v>
@@ -9432,7 +9410,7 @@
         <v>1</v>
       </c>
       <c r="J85" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="M85" s="1">
         <v>10</v>
@@ -9456,10 +9434,10 @@
     </row>
     <row r="86" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C86" s="1">
         <v>5</v>
@@ -9477,7 +9455,7 @@
         <v>1</v>
       </c>
       <c r="J86" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="N86" s="1">
         <v>10</v>
@@ -9496,10 +9474,10 @@
     </row>
     <row r="87" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C87" s="1">
         <v>5</v>
@@ -9517,7 +9495,7 @@
         <v>1</v>
       </c>
       <c r="J87" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="L87" s="1">
         <v>10</v>
@@ -9542,10 +9520,10 @@
     </row>
     <row r="88" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C88" s="1">
         <v>5</v>
@@ -9563,7 +9541,7 @@
         <v>1</v>
       </c>
       <c r="J88" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="N88" s="1"/>
       <c r="O88" s="1">
@@ -9578,10 +9556,10 @@
     </row>
     <row r="89" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C89" s="1">
         <v>5</v>
@@ -9599,7 +9577,7 @@
         <v>1</v>
       </c>
       <c r="J89" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="N89" s="1"/>
       <c r="O89" s="1">
@@ -9614,10 +9592,10 @@
     </row>
     <row r="90" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C90" s="1">
         <v>5</v>
@@ -9635,7 +9613,7 @@
         <v>1</v>
       </c>
       <c r="J90" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="N90" s="1"/>
       <c r="O90" s="1">
@@ -9650,10 +9628,10 @@
     </row>
     <row r="91" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C91" s="1">
         <v>5</v>
@@ -9671,7 +9649,7 @@
         <v>1</v>
       </c>
       <c r="J91" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="N91" s="1">
         <v>10</v>
@@ -9690,10 +9668,10 @@
     </row>
     <row r="92" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C92" s="1">
         <v>5</v>
@@ -9711,7 +9689,7 @@
         <v>1</v>
       </c>
       <c r="J92" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
@@ -9722,10 +9700,10 @@
     </row>
     <row r="93" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C93" s="1">
         <v>5</v>
@@ -9743,7 +9721,7 @@
         <v>1</v>
       </c>
       <c r="J93" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="L93" s="1">
         <v>10</v>
@@ -9768,10 +9746,10 @@
     </row>
     <row r="94" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C94" s="1">
         <v>5</v>
@@ -9789,7 +9767,7 @@
         <v>1</v>
       </c>
       <c r="J94" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="N94" s="1"/>
       <c r="O94" s="1">
@@ -9804,10 +9782,10 @@
     </row>
     <row r="95" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C95" s="1">
         <v>5</v>
@@ -9825,7 +9803,7 @@
         <v>1</v>
       </c>
       <c r="J95" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="N95" s="1"/>
       <c r="O95" s="1">
@@ -9840,10 +9818,10 @@
     </row>
     <row r="96" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C96" s="1">
         <v>5</v>
@@ -9861,7 +9839,7 @@
         <v>1</v>
       </c>
       <c r="J96" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="N96" s="1"/>
       <c r="O96" s="1">
@@ -9876,10 +9854,10 @@
     </row>
     <row r="97" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C97" s="1">
         <v>5</v>
@@ -9897,7 +9875,7 @@
         <v>1</v>
       </c>
       <c r="J97" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="N97" s="1"/>
       <c r="O97" s="1">
@@ -9912,10 +9890,10 @@
     </row>
     <row r="98" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C98" s="1">
         <v>5</v>
@@ -9933,7 +9911,7 @@
         <v>1</v>
       </c>
       <c r="J98" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="N98" s="1">
         <v>10</v>
@@ -9952,10 +9930,10 @@
     </row>
     <row r="99" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C99" s="1">
         <v>5</v>
@@ -9973,7 +9951,7 @@
         <v>1</v>
       </c>
       <c r="J99" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="L99" s="1">
         <v>10</v>
@@ -9998,10 +9976,10 @@
     </row>
     <row r="100" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C100" s="1">
         <v>5</v>
@@ -10019,7 +9997,7 @@
         <v>1</v>
       </c>
       <c r="J100" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="L100" s="1">
         <v>10</v>
@@ -10044,10 +10022,10 @@
     </row>
     <row r="101" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C101" s="1">
         <v>5</v>
@@ -10065,7 +10043,7 @@
         <v>1</v>
       </c>
       <c r="J101" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L101" s="9"/>
       <c r="N101" s="1"/>
@@ -10087,10 +10065,10 @@
     </row>
     <row r="102" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C102" s="1">
         <v>5</v>
@@ -10108,7 +10086,7 @@
         <v>1</v>
       </c>
       <c r="J102" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
@@ -10119,10 +10097,10 @@
     </row>
     <row r="103" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C103" s="1">
         <v>5</v>
@@ -10140,7 +10118,7 @@
         <v>1</v>
       </c>
       <c r="J103" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N103" s="1"/>
       <c r="O103" s="1">
@@ -10155,10 +10133,10 @@
     </row>
     <row r="104" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C104" s="1">
         <v>5</v>
@@ -10176,7 +10154,7 @@
         <v>1</v>
       </c>
       <c r="J104" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
@@ -10187,10 +10165,10 @@
     </row>
     <row r="105" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C105" s="1">
         <v>5</v>
@@ -10208,7 +10186,7 @@
         <v>1</v>
       </c>
       <c r="J105" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
@@ -10219,10 +10197,10 @@
     </row>
     <row r="106" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C106" s="1">
         <v>5</v>
@@ -10240,7 +10218,7 @@
         <v>1</v>
       </c>
       <c r="J106" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="N106" s="1"/>
       <c r="O106" s="1">
@@ -10255,10 +10233,10 @@
     </row>
     <row r="107" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C107" s="1">
         <v>5</v>
@@ -10276,7 +10254,7 @@
         <v>1</v>
       </c>
       <c r="J107" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
@@ -10287,10 +10265,10 @@
     </row>
     <row r="108" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C108" s="1">
         <v>5</v>
@@ -10308,7 +10286,7 @@
         <v>1</v>
       </c>
       <c r="J108" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="N108" s="1"/>
       <c r="O108" s="1">
@@ -10323,10 +10301,10 @@
     </row>
     <row r="109" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C109" s="1">
         <v>5</v>
@@ -10344,7 +10322,7 @@
         <v>1</v>
       </c>
       <c r="J109" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="L109" s="1">
         <v>10</v>
@@ -10369,10 +10347,10 @@
     </row>
     <row r="110" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C110" s="1">
         <v>5</v>
@@ -10390,7 +10368,7 @@
         <v>1</v>
       </c>
       <c r="J110" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="N110" s="1"/>
       <c r="O110" s="1">
@@ -10405,10 +10383,10 @@
     </row>
     <row r="111" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C111" s="1">
         <v>5</v>
@@ -10426,7 +10404,7 @@
         <v>1</v>
       </c>
       <c r="J111" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="N111" s="1"/>
       <c r="O111" s="1">
@@ -10441,10 +10419,10 @@
     </row>
     <row r="112" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C112" s="1">
         <v>5</v>
@@ -10462,7 +10440,7 @@
         <v>1</v>
       </c>
       <c r="J112" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="N112" s="1"/>
       <c r="O112" s="1">
@@ -10477,10 +10455,10 @@
     </row>
     <row r="113" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C113" s="1">
         <v>5</v>
@@ -10498,7 +10476,7 @@
         <v>1</v>
       </c>
       <c r="J113" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="L113" s="1">
         <v>10</v>
@@ -10519,10 +10497,10 @@
     </row>
     <row r="114" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C114" s="1">
         <v>5</v>
@@ -10540,7 +10518,7 @@
         <v>1</v>
       </c>
       <c r="J114" s="9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="N114" s="1"/>
       <c r="O114" s="1">
@@ -10555,10 +10533,10 @@
     </row>
     <row r="115" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C115" s="1">
         <v>5</v>
@@ -10576,7 +10554,7 @@
         <v>1</v>
       </c>
       <c r="J115" s="9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="N115" s="1"/>
       <c r="O115" s="1">
@@ -10591,10 +10569,10 @@
     </row>
     <row r="116" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C116" s="1">
         <v>5</v>
@@ -10612,7 +10590,7 @@
         <v>1</v>
       </c>
       <c r="J116" s="9" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
@@ -10623,10 +10601,10 @@
     </row>
     <row r="117" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C117" s="1">
         <v>5</v>
@@ -10644,7 +10622,7 @@
         <v>1</v>
       </c>
       <c r="J117" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
@@ -10655,10 +10633,10 @@
     </row>
     <row r="118" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C118" s="1">
         <v>5</v>
@@ -10676,7 +10654,7 @@
         <v>1</v>
       </c>
       <c r="J118" s="9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="L118" s="1">
         <v>10</v>
@@ -10701,10 +10679,10 @@
     </row>
     <row r="119" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C119" s="1">
         <v>5</v>
@@ -10722,7 +10700,7 @@
         <v>1</v>
       </c>
       <c r="J119" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="N119" s="1"/>
       <c r="O119" s="1">
@@ -10737,10 +10715,10 @@
     </row>
     <row r="120" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C120" s="1">
         <v>5</v>
@@ -10758,7 +10736,7 @@
         <v>1</v>
       </c>
       <c r="J120" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="N120" s="1"/>
       <c r="O120" s="1">
@@ -10773,10 +10751,10 @@
     </row>
     <row r="121" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C121" s="1">
         <v>5</v>
@@ -10794,7 +10772,7 @@
         <v>1</v>
       </c>
       <c r="J121" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
@@ -10805,10 +10783,10 @@
     </row>
     <row r="122" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C122" s="1">
         <v>5</v>
@@ -10826,7 +10804,7 @@
         <v>1</v>
       </c>
       <c r="J122" s="9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
@@ -10837,10 +10815,10 @@
     </row>
     <row r="123" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C123" s="1">
         <v>5</v>
@@ -10858,7 +10836,7 @@
         <v>1</v>
       </c>
       <c r="J123" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="L123" s="1">
         <v>10</v>
@@ -10883,10 +10861,10 @@
     </row>
     <row r="124" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C124" s="1">
         <v>5</v>
@@ -10904,7 +10882,7 @@
         <v>1</v>
       </c>
       <c r="J124" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
@@ -10915,10 +10893,10 @@
     </row>
     <row r="125" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C125" s="1">
         <v>1</v>
@@ -10936,7 +10914,7 @@
         <v>1</v>
       </c>
       <c r="J125" s="9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="N125" s="1"/>
       <c r="O125" s="1">
@@ -10951,10 +10929,10 @@
     </row>
     <row r="126" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C126" s="1">
         <v>1</v>
@@ -10972,7 +10950,7 @@
         <v>1</v>
       </c>
       <c r="J126" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="N126" s="1"/>
       <c r="O126" s="1">
@@ -10987,10 +10965,10 @@
     </row>
     <row r="127" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C127" s="1">
         <v>1</v>
@@ -11008,7 +10986,7 @@
         <v>1</v>
       </c>
       <c r="J127" s="9" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="N127" s="1"/>
       <c r="O127" s="1">
@@ -11023,10 +11001,10 @@
     </row>
     <row r="128" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C128" s="1">
         <v>1</v>
@@ -11044,7 +11022,7 @@
         <v>1</v>
       </c>
       <c r="J128" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="N128" s="1"/>
       <c r="O128" s="1">
@@ -11059,10 +11037,10 @@
     </row>
     <row r="129" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C129" s="1">
         <v>1</v>
@@ -11080,7 +11058,7 @@
         <v>1</v>
       </c>
       <c r="J129" s="9" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
@@ -11091,10 +11069,10 @@
     </row>
     <row r="130" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C130" s="1">
         <v>1</v>
@@ -11112,7 +11090,7 @@
         <v>1</v>
       </c>
       <c r="J130" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="N130" s="1"/>
       <c r="O130" s="1">
@@ -11127,10 +11105,10 @@
     </row>
     <row r="131" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C131" s="1">
         <v>1</v>
@@ -11148,7 +11126,7 @@
         <v>1</v>
       </c>
       <c r="J131" s="9" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="N131" s="1">
         <v>5</v>
@@ -11167,10 +11145,10 @@
     </row>
     <row r="132" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C132" s="1">
         <v>1</v>
@@ -11188,7 +11166,7 @@
         <v>1</v>
       </c>
       <c r="J132" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="N132" s="1"/>
       <c r="O132" s="1">
@@ -11453,7 +11431,7 @@
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -11467,7 +11445,7 @@
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -11481,7 +11459,7 @@
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -11496,7 +11474,7 @@
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -11510,7 +11488,7 @@
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -11526,7 +11504,7 @@
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -11542,7 +11520,7 @@
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -11558,7 +11536,7 @@
     </row>
     <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -11574,7 +11552,7 @@
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -11590,7 +11568,7 @@
     </row>
     <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -11605,7 +11583,7 @@
     </row>
     <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -11620,7 +11598,7 @@
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -11635,7 +11613,7 @@
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -11650,7 +11628,7 @@
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -11665,7 +11643,7 @@
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -11680,7 +11658,7 @@
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -11695,7 +11673,7 @@
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
@@ -11710,7 +11688,7 @@
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -11725,7 +11703,7 @@
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
@@ -11740,7 +11718,7 @@
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -11755,7 +11733,7 @@
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
@@ -11770,7 +11748,7 @@
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
@@ -11785,7 +11763,7 @@
     </row>
     <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -11800,7 +11778,7 @@
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
@@ -11815,7 +11793,7 @@
     </row>
     <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B26" s="1">
         <v>0</v>
@@ -11830,7 +11808,7 @@
     </row>
     <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -11888,7 +11866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41CFC106-4249-4BC9-9967-425037A65B0D}">
   <dimension ref="A1:J132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -11933,7 +11911,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="9" t="b">
@@ -11942,7 +11920,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="9" t="b">
@@ -11951,7 +11929,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="9" t="b">
@@ -11960,7 +11938,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="9" t="b">
@@ -11969,7 +11947,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="9" t="b">
@@ -11978,7 +11956,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="9" t="b">
@@ -11987,7 +11965,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="9" t="b">
@@ -11996,7 +11974,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="9" t="b">
@@ -12005,7 +11983,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="9" t="b">
@@ -12014,7 +11992,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="9" t="b">
@@ -12023,7 +12001,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="9" t="b">
@@ -12032,7 +12010,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="9" t="b">
@@ -12041,7 +12019,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="9" t="b">
@@ -12050,7 +12028,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="9" t="b">
@@ -12059,7 +12037,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="9" t="b">
@@ -12068,7 +12046,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="9" t="b">
@@ -12077,7 +12055,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="9" t="b">
@@ -12086,7 +12064,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="9" t="b">
@@ -12095,7 +12073,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="9" t="b">
@@ -12104,7 +12082,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="9" t="b">
@@ -12113,7 +12091,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="9" t="b">
@@ -12122,7 +12100,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="9" t="b">
@@ -12131,7 +12109,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="9" t="b">
@@ -12140,7 +12118,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="9" t="b">
@@ -12149,7 +12127,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="9" t="b">
@@ -12158,7 +12136,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="9" t="b">
@@ -12167,7 +12145,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="9" t="b">
@@ -12176,7 +12154,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="9" t="b">
@@ -12185,7 +12163,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="9" t="b">
@@ -12194,7 +12172,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="9" t="b">
@@ -12203,7 +12181,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="9" t="b">
@@ -12212,7 +12190,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="9" t="b">
@@ -12221,7 +12199,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="9" t="b">
@@ -12230,7 +12208,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="9" t="b">
@@ -12239,7 +12217,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="9" t="b">
@@ -12248,7 +12226,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="9" t="b">
@@ -12257,7 +12235,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H38" s="6"/>
       <c r="I38" s="9" t="b">
@@ -12266,7 +12244,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="9" t="b">
@@ -12275,7 +12253,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="9" t="b">
@@ -12284,7 +12262,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="9" t="b">
@@ -12293,7 +12271,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="9" t="b">
@@ -12302,7 +12280,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="9" t="b">
@@ -12311,7 +12289,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="9" t="b">
@@ -12320,7 +12298,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="9" t="b">
@@ -12329,7 +12307,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="9" t="b">
@@ -12338,7 +12316,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H47" s="6"/>
       <c r="I47" s="9" t="b">
@@ -12347,7 +12325,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H48" s="6"/>
       <c r="I48" s="9" t="b">
@@ -12356,7 +12334,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="9" t="b">
@@ -12365,7 +12343,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H50" s="6"/>
       <c r="I50" s="9" t="b">
@@ -12374,7 +12352,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="9" t="b">
@@ -12383,7 +12361,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="9" t="b">
@@ -12392,7 +12370,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H53" s="6"/>
       <c r="I53" s="9" t="b">
@@ -12401,7 +12379,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I54" s="9" t="b">
         <v>1</v>
@@ -12409,7 +12387,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I55" s="9" t="b">
         <v>1</v>
@@ -12417,7 +12395,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I56" s="9" t="b">
         <v>1</v>
@@ -12425,7 +12403,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I57" s="9" t="b">
         <v>1</v>
@@ -12433,7 +12411,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I58" s="9" t="b">
         <v>1</v>
@@ -12441,7 +12419,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I59" s="9" t="b">
         <v>1</v>
@@ -12449,7 +12427,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I60" s="9" t="b">
         <v>1</v>
@@ -12457,7 +12435,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I61" s="9" t="b">
         <v>1</v>
@@ -12465,7 +12443,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="I62" s="9" t="b">
         <v>1</v>
@@ -12473,7 +12451,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I63" s="9" t="b">
         <v>1</v>
@@ -12481,7 +12459,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I64" s="9" t="b">
         <v>1</v>
@@ -12489,7 +12467,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I65" s="9" t="b">
         <v>1</v>
@@ -12497,7 +12475,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I66" s="9" t="b">
         <v>1</v>
@@ -12505,7 +12483,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I67" s="9" t="b">
         <v>1</v>
@@ -12513,7 +12491,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="I68" s="9" t="b">
         <v>1</v>
@@ -12521,7 +12499,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I69" s="9" t="b">
         <v>1</v>
@@ -12529,7 +12507,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I70" s="9" t="b">
         <v>1</v>
@@ -12537,7 +12515,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I71" s="9" t="b">
         <v>1</v>
@@ -12545,7 +12523,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I72" s="9" t="b">
         <v>1</v>
@@ -12553,7 +12531,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I73" s="9" t="b">
         <v>1</v>
@@ -12561,7 +12539,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I74" s="9" t="b">
         <v>1</v>
@@ -12569,7 +12547,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="I75" s="9" t="b">
         <v>1</v>
@@ -12577,7 +12555,7 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I76" s="9" t="b">
         <v>1</v>
@@ -12585,7 +12563,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I77" s="9" t="b">
         <v>1</v>
@@ -12593,7 +12571,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I78" s="9" t="b">
         <v>1</v>
@@ -12601,7 +12579,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I79" s="9" t="b">
         <v>1</v>
@@ -12609,7 +12587,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I80" s="9" t="b">
         <v>1</v>
@@ -12617,7 +12595,7 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I81" s="9" t="b">
         <v>1</v>
@@ -12625,7 +12603,7 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I82" s="9" t="b">
         <v>1</v>
@@ -12633,7 +12611,7 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I83" s="9" t="b">
         <v>1</v>
@@ -12641,7 +12619,7 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="I84" s="9" t="b">
         <v>1</v>
@@ -12649,7 +12627,7 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I85" s="9" t="b">
         <v>1</v>
@@ -12657,7 +12635,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="I86" s="9" t="b">
         <v>1</v>
@@ -12665,7 +12643,7 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I87" s="9" t="b">
         <v>1</v>
@@ -12673,7 +12651,7 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I88" s="9" t="b">
         <v>1</v>
@@ -12681,7 +12659,7 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I89" s="9" t="b">
         <v>1</v>
@@ -12689,7 +12667,7 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I90" s="9" t="b">
         <v>1</v>
@@ -12697,7 +12675,7 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="I91" s="9" t="b">
         <v>1</v>
@@ -12705,7 +12683,7 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="I92" s="9" t="b">
         <v>1</v>
@@ -12713,7 +12691,7 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I93" s="9" t="b">
         <v>1</v>
@@ -12721,7 +12699,7 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="I94" s="9" t="b">
         <v>1</v>
@@ -12729,7 +12707,7 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="I95" s="9" t="b">
         <v>1</v>
@@ -12737,7 +12715,7 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I96" s="9" t="b">
         <v>1</v>
@@ -12745,7 +12723,7 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I97" s="9" t="b">
         <v>1</v>
@@ -12753,7 +12731,7 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="I98" s="9" t="b">
         <v>1</v>
@@ -12761,7 +12739,7 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I99" s="9" t="b">
         <v>1</v>
@@ -12769,7 +12747,7 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I100" s="9" t="b">
         <v>1</v>
@@ -12777,7 +12755,7 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I101" s="9" t="b">
         <v>1</v>
@@ -12785,7 +12763,7 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I102" s="9" t="b">
         <v>1</v>
@@ -12793,7 +12771,7 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="I103" s="9" t="b">
         <v>1</v>
@@ -12801,7 +12779,7 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I104" s="9" t="b">
         <v>1</v>
@@ -12809,7 +12787,7 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I105" s="9" t="b">
         <v>1</v>
@@ -12817,7 +12795,7 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="I106" s="9" t="b">
         <v>1</v>
@@ -12825,7 +12803,7 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I107" s="9" t="b">
         <v>1</v>
@@ -12833,7 +12811,7 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I108" s="9" t="b">
         <v>1</v>
@@ -12841,7 +12819,7 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I109" s="9" t="b">
         <v>1</v>
@@ -12849,7 +12827,7 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I110" s="9" t="b">
         <v>1</v>
@@ -12857,7 +12835,7 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I111" s="9" t="b">
         <v>1</v>
@@ -12865,7 +12843,7 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I112" s="9" t="b">
         <v>1</v>
@@ -12873,7 +12851,7 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I113" s="9" t="b">
         <v>1</v>
@@ -12881,7 +12859,7 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I114" s="9" t="b">
         <v>1</v>
@@ -12889,7 +12867,7 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I115" s="9" t="b">
         <v>1</v>
@@ -12897,7 +12875,7 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="I116" s="9" t="b">
         <v>1</v>
@@ -12905,7 +12883,7 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I117" s="9" t="b">
         <v>1</v>
@@ -12913,7 +12891,7 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="I118" s="9" t="b">
         <v>1</v>
@@ -12921,7 +12899,7 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="I119" s="9" t="b">
         <v>1</v>
@@ -12929,7 +12907,7 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="I120" s="9" t="b">
         <v>1</v>
@@ -12937,7 +12915,7 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="I121" s="9" t="b">
         <v>1</v>
@@ -12945,7 +12923,7 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I122" s="9" t="b">
         <v>1</v>
@@ -12953,7 +12931,7 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I123" s="9" t="b">
         <v>1</v>
@@ -12961,7 +12939,7 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="I124" s="9" t="b">
         <v>1</v>
@@ -12969,7 +12947,7 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I125" s="9" t="b">
         <v>1</v>
@@ -12977,7 +12955,7 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="I126" s="9" t="b">
         <v>1</v>
@@ -12985,7 +12963,7 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="I127" s="9" t="b">
         <v>1</v>
@@ -12993,7 +12971,7 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I128" s="9" t="b">
         <v>1</v>
@@ -13001,7 +12979,7 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="I129" s="9" t="b">
         <v>1</v>
@@ -13009,7 +12987,7 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I130" s="9" t="b">
         <v>1</v>
@@ -13017,7 +12995,7 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I131" s="9" t="b">
         <v>1</v>
@@ -13025,7 +13003,7 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I132" s="9" t="b">
         <v>1</v>
@@ -13141,7 +13119,7 @@
     </row>
     <row r="4" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B4" s="1">
         <v>5</v>
@@ -13164,7 +13142,7 @@
     </row>
     <row r="5" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B5" s="1">
         <v>5</v>
@@ -13233,7 +13211,7 @@
     </row>
     <row r="8" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B8" s="1">
         <v>5</v>
@@ -13256,7 +13234,7 @@
     </row>
     <row r="9" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B9" s="1">
         <v>5</v>
@@ -13325,7 +13303,7 @@
     </row>
     <row r="2" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>90</v>
@@ -13333,7 +13311,7 @@
     </row>
     <row r="3" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>90</v>
@@ -13341,7 +13319,7 @@
     </row>
     <row r="4" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>90</v>
@@ -13349,7 +13327,7 @@
     </row>
     <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>90</v>
@@ -13357,7 +13335,7 @@
     </row>
     <row r="6" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>90</v>
@@ -13365,7 +13343,7 @@
     </row>
     <row r="7" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>90</v>
@@ -13373,7 +13351,7 @@
     </row>
     <row r="8" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>90</v>
@@ -13381,7 +13359,7 @@
     </row>
     <row r="9" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>90</v>
@@ -13389,7 +13367,7 @@
     </row>
     <row r="10" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>90</v>
@@ -13397,7 +13375,7 @@
     </row>
     <row r="11" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>90</v>
@@ -13457,10 +13435,10 @@
         <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>49</v>
@@ -13469,162 +13447,162 @@
         <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1">
@@ -13642,7 +13620,7 @@
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B24" s="1">
         <v>10</v>
@@ -13655,7 +13633,7 @@
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B25" s="1">
         <v>100</v>
@@ -13673,7 +13651,7 @@
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B26" s="1">
         <v>100</v>
@@ -13691,7 +13669,7 @@
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B27" s="1">
         <v>100</v>
@@ -13737,34 +13715,34 @@
     <row r="1" spans="1:18" s="3" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>415</v>
       </c>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -13776,132 +13754,132 @@
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
